--- a/drinks.xlsx
+++ b/drinks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4078,6 +4078,70 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>炭酸飲料画像/サニー・シトラス・スプラッシュ.jpg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>サニー・シトラス・スプラッシュ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>サニー・シトラス・スプラッシュは、太陽の恵みをたっぷりと受けたシトラスの爽やかな味わいが楽しめる炭酸飲料です。日々の疲れを癒し、元気を取り戻すための一杯として、家族や友人とシェアするのにもぴったりです。ビタミンCが豊富に含まれ、健康にも配慮しています。</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>サニー・シトラス・スプラッシュは、オレンジ、レモン、グレープフルーツの3つのシトラスフルーツの絶妙なブレンドです。オレンジの甘み、レモンの酸味、グレープフルーツの苦みがバランスよく調和し、一口飲むだけで爽快な気分になります。炭酸の刺激が心地よく、暑い夏の日にもぴったりの飲み物です。</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>500mlペットボトル：日常的な利用に最適なスタンダードサイズ。</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>サニー・シトラス・スプラッシュのデザインは、明るく元気なイメージを反映したビタミンカラーを基調としています。ラベルには太陽のイラストとシトラスフルーツのカラフルなグラフィックが描かれ、見るだけで元気が出るようなデザインです。ボトルは透明で、中の鮮やかなシトラスカラーの飲料が見えるようになっています。キャップは明るいオレンジ色で、全体的なデザインに統一感を持たせています。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>炭酸飲料画像/トロピカル・ブリス・スパークル.jpg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>トロピカル・ブリス・スパークル</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>トロピカル・ブリス・スパークルは、南国の楽園を思わせるトロピカルフルーツの風味と爽やかな炭酸が融合した特別な飲料です。忙しい日常の中で、ひとときのバカンス気分を味わえるリフレッシュドリンクです。ビタミンEと抗酸化成分を豊富に含み、美容と健康をサポートします。</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>トロピカル・ブリス・スパークルは、マンゴー、パイナップル、パッションフルーツの3種類のトロピカルフルーツのブレンドによる贅沢な味わいです。マンゴーの濃厚な甘さとパイナップルのジューシーな酸味、パッションフルーツのエキゾチックな香りが絶妙に調和し、口の中に南国の風が吹き抜けるような爽快感をもたらします。</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>500mlペットボトル：日常のリフレッシュに最適な標準サイズ</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>トロピカル・ブリス・スパークルのデザインは、南国の楽園をイメージした鮮やかで楽しいものです。ラベルにはトロピカルフルーツのイラストが華やかに描かれ、明るい黄色と緑の色調がリゾート気分を演出します。ボトルは透明で、中のトロピカルカラーの飲料が一目で分かるようになっています。キャップはゴールドで、高級感と洗練された印象を与えます。  トロピカル・ブリス・スパークルで、日常に南国の風と楽園のひとときをお届けします。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/drinks.xlsx
+++ b/drinks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4142,6 +4142,70 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>炭酸飲料画像/ウィルキンソン　ピーチフレーバー.jpg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ウィルキンソン　ピーチフレーバー</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>炭酸水に桃の香りがついたものです。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>桃の風味があり、炭酸によりすっきりとした味わいになっている</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>500ml</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>ピンクをメインカラーにフレッシュなイメージ</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>炭酸飲料画像/フルーティー・バースト・スパークル.jpg</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>フルーティー・バースト・スパークル</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>フルーティー・バースト・スパークルは、新鮮なフルーツのエッセンスが詰まった、爽快な炭酸飲料です。仕事や勉強の合間にリフレッシュしたい時、または友人や家族と過ごす楽しいひとときにぴったりのドリンクです。天然のフルーツエキスを使用しており、健康志向の方にも安心してお楽しみいただけます。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>フルーティー・バースト・スパークルは、マンゴー、パイナップル、ストロベリーの3種類のフルーツの風味がミックスされた贅沢な味わいが特徴です。マンゴーのトロピカルな甘さと、パイナップルのジューシーな酸味、ストロベリーのフレッシュな香りが絶妙に調和し、一口飲むたびにフルーツの楽園へと誘います。</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>500mlペットボトル</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>フルーティー・バースト・スパークルのデザインは、明るく元気なフルーツカラーを基調としています。ラベルには鮮やかなフルーツのイラストが描かれ、見るだけで楽しさと爽やかさが伝わるデザインです。ボトルは透明で、中のカラフルなフルーツドリンクが一目で分かるようになっています。キャップはシルバーで、全体のデザインに洗練された印象を加えています。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
